--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -491,8 +491,16 @@
           <t>False</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20260212_d3c70a24-378f-42e1-b71c-9767071cea25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20260212_a6f44502-208b-4016-919b-3fc039b01204</t>
+          <t>20260212_86a00862-40fe-4d0c-9f17-1683f4fcb67f</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20260212_d3c70a24-378f-42e1-b71c-9767071cea25</t>
+          <t>20260212_74083baf-d2f8-4f54-ba4f-71abdf7a2b6c</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20260212_86a00862-40fe-4d0c-9f17-1683f4fcb67f</t>
+          <t>20260212_eeac711c-7a25-4f25-ace5-ae2d1524d877</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20260212_74083baf-d2f8-4f54-ba4f-71abdf7a2b6c</t>
+          <t>20260212_4747f54a-5dc9-4dd7-862e-8325897ad75b</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20260212_eeac711c-7a25-4f25-ace5-ae2d1524d877</t>
+          <t>20260212_e52717ca-44c7-4d51-ac6a-9fa8dae5751d</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20260212_4747f54a-5dc9-4dd7-862e-8325897ad75b</t>
+          <t>20260212_e6a741e9-d35e-4a4a-a4c5-6317941caa00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20260212_e52717ca-44c7-4d51-ac6a-9fa8dae5751d</t>
+          <t>20260212_e0c4a374-b62e-4de4-aaa3-285633aaf1fc</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20260212_e6a741e9-d35e-4a4a-a4c5-6317941caa00</t>
+          <t>20260212_ca4c8dbc-d3a8-46b8-a6d3-db5509bd9d16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20260212_e0c4a374-b62e-4de4-aaa3-285633aaf1fc</t>
+          <t>20260212_d8262f9d-4ce7-4a40-bbac-1f847c4d8eb3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20260212_ca4c8dbc-d3a8-46b8-a6d3-db5509bd9d16</t>
+          <t>20260212_6df08fa2-90c4-43c3-b39b-8e31a1305a78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20260212_d8262f9d-4ce7-4a40-bbac-1f847c4d8eb3</t>
+          <t>20260212_cd909f85-693e-4cbd-b875-40f26f1d9088</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20260212_6df08fa2-90c4-43c3-b39b-8e31a1305a78</t>
+          <t>20260212_2e17734e-a127-4242-8762-b20848854674</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20260212_cd909f85-693e-4cbd-b875-40f26f1d9088</t>
+          <t>20260212_5209a01b-ef55-4ee4-aedb-c909a9844d28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20260212_2e17734e-a127-4242-8762-b20848854674</t>
+          <t>20260212_c1c3e6d8-e3eb-41f4-9658-148b844a37ec</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20260212_5209a01b-ef55-4ee4-aedb-c909a9844d28</t>
+          <t>20260212_2c7ea7da-a9ce-4a73-8b37-d5bfc41296ef</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20260212_c1c3e6d8-e3eb-41f4-9658-148b844a37ec</t>
+          <t>20260212_4d83ce4a-e8f1-4d67-b125-c9723d5f2ca0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -461,12 +461,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20260212_2c7ea7da-a9ce-4a73-8b37-d5bfc41296ef</t>
+          <t>20260212_25e4fbdf-503a-4175-9c26-217e2f99368a</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20260212_4d83ce4a-e8f1-4d67-b125-c9723d5f2ca0</t>
+          <t>20260212_9b0d0d82-9c28-46d1-8de3-67fb2141469e</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20260212_25e4fbdf-503a-4175-9c26-217e2f99368a</t>
+          <t>20260212_198ece21-654e-4973-92b3-ad9b080cc2a6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20260212_9b0d0d82-9c28-46d1-8de3-67fb2141469e</t>
+          <t>20260212_14fd2301-82f7-4c56-bcee-bbfb3b98b254</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20260212_198ece21-654e-4973-92b3-ad9b080cc2a6</t>
+          <t>20260212_2018be50-7a15-4b9c-8b02-ec0c5dbd655a</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20260212_14fd2301-82f7-4c56-bcee-bbfb3b98b254</t>
+          <t>20260212_1c38404f-0704-45cc-86e8-037d698306b5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20260212_2018be50-7a15-4b9c-8b02-ec0c5dbd655a</t>
+          <t>20260212_b9b10c00-c21c-43b1-8a1f-b18c520987f5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20260212_1c38404f-0704-45cc-86e8-037d698306b5</t>
+          <t>20260212_9ea35680-be7c-4a89-acf2-2dff057041e6</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20260212_b9b10c00-c21c-43b1-8a1f-b18c520987f5</t>
+          <t>20260212_169a3d0a-03ec-4e5e-bdb5-a938cd6ad6ac</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20260212_9ea35680-be7c-4a89-acf2-2dff057041e6</t>
+          <t>20260212_d50c68f3-da33-473c-88b0-f4b5431ccc89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20260212_169a3d0a-03ec-4e5e-bdb5-a938cd6ad6ac</t>
+          <t>20260212_9847a16d-414d-43a1-84ce-392a7a657344</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20260212_d50c68f3-da33-473c-88b0-f4b5431ccc89</t>
+          <t>20260212_bf698fe9-986e-4269-9aee-60ddd8b62aaf</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20260212_9847a16d-414d-43a1-84ce-392a7a657344</t>
+          <t>20260212_50b211c5-268b-4067-94ea-d5741e96977b</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20260212_bf698fe9-986e-4269-9aee-60ddd8b62aaf</t>
+          <t>20260212_cc919a51-5a1c-42fd-b54d-3d462d63b35b</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20260212_50b211c5-268b-4067-94ea-d5741e96977b</t>
+          <t>20260212_143f014c-fc0f-41ae-be4b-d7af68109b36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20260212_cc919a51-5a1c-42fd-b54d-3d462d63b35b</t>
+          <t>20260212_481b5c65-bcf2-4192-8a10-0f1800ce853f</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20260212_143f014c-fc0f-41ae-be4b-d7af68109b36</t>
+          <t>20260212_dbb0fee2-6491-414b-8c39-ad027995451a</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20260212_481b5c65-bcf2-4192-8a10-0f1800ce853f</t>
+          <t>20260212_f3ceb8e3-08ec-4b88-bd0c-20db6b69ced7</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20260212_dbb0fee2-6491-414b-8c39-ad027995451a</t>
+          <t>20260212_ed7ae671-7abf-4283-b204-59d8affb6665</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20260212_f3ceb8e3-08ec-4b88-bd0c-20db6b69ced7</t>
+          <t>20260212_ad064b50-19c4-483f-b42b-7e31d39e80ec</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20260212_ed7ae671-7abf-4283-b204-59d8affb6665</t>
+          <t>20260212_4c19b1b3-76df-49ad-9146-eb4432e62b81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20260212_ad064b50-19c4-483f-b42b-7e31d39e80ec</t>
+          <t>20260212_aa135eb3-a725-44dd-8c93-e8706edd7583</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20260212_4c19b1b3-76df-49ad-9146-eb4432e62b81</t>
+          <t>20260212_0fea9a8f-858b-4514-86f4-325367a870c7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20260212_aa135eb3-a725-44dd-8c93-e8706edd7583</t>
+          <t>20260212_e2db204b-6ba9-4a25-b839-17f6fce3ef00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20260212_0fea9a8f-858b-4514-86f4-325367a870c7</t>
+          <t>20260212_af7fc3b1-5b20-47b2-9652-2265652870e2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20260212_e2db204b-6ba9-4a25-b839-17f6fce3ef00</t>
+          <t>20260212_894d9caa-bdd1-4040-9aa3-12bcee8a93a0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20260212_af7fc3b1-5b20-47b2-9652-2265652870e2</t>
+          <t>20260212_dca0f61e-9b49-4622-8999-645bfe5fcc9e</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20260212_894d9caa-bdd1-4040-9aa3-12bcee8a93a0</t>
+          <t>20260212_2a961e2c-8bee-4bc2-a9a4-ac2733b9a716</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20260212_dca0f61e-9b49-4622-8999-645bfe5fcc9e</t>
+          <t>20260212_37067b42-4f2d-4401-9627-961e3c0668d8</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20260212_2a961e2c-8bee-4bc2-a9a4-ac2733b9a716</t>
+          <t>20260212_ed35d6be-91d2-49cf-ba7c-b2f3f141d3ad</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20260212_37067b42-4f2d-4401-9627-961e3c0668d8</t>
+          <t>20260212_10abf661-099f-4c0a-a5a8-bfcb7baaa5a2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20260212_ed35d6be-91d2-49cf-ba7c-b2f3f141d3ad</t>
+          <t>20260212_c7764399-40ba-4560-a3eb-c04f407ed06b</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20260212_10abf661-099f-4c0a-a5a8-bfcb7baaa5a2</t>
+          <t>20260212_6d8998c2-e436-4567-8cff-cdad2420c4d6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20260212_c7764399-40ba-4560-a3eb-c04f407ed06b</t>
+          <t>20260212_797f45f4-7da9-4699-9283-e2cd042ff408</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20260212_6d8998c2-e436-4567-8cff-cdad2420c4d6</t>
+          <t>20260212_b0a85d5d-2b2e-4fec-885a-7535bc29d5b5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20260212_797f45f4-7da9-4699-9283-e2cd042ff408</t>
+          <t>20260212_57c33829-e32f-4436-87e8-73d780e4f1d9</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20260212_b0a85d5d-2b2e-4fec-885a-7535bc29d5b5</t>
+          <t>20260212_dc2ba802-87b8-482a-beac-29e8527d6b42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20260212_57c33829-e32f-4436-87e8-73d780e4f1d9</t>
+          <t>20260212_57e2f740-c0d6-4cff-b298-75fc76491eff</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20260212_dc2ba802-87b8-482a-beac-29e8527d6b42</t>
+          <t>20260212_e62bf7d7-08c8-4281-b3f7-1318c4be2da5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20260212_57e2f740-c0d6-4cff-b298-75fc76491eff</t>
+          <t>20260212_806c7711-4b55-4635-954d-95c2443f6b20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20260212_e62bf7d7-08c8-4281-b3f7-1318c4be2da5</t>
+          <t>20260212_f853b2ff-dc28-431b-8d78-1294ce6434aa</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20260212_806c7711-4b55-4635-954d-95c2443f6b20</t>
+          <t>20260212_02c4f4a2-fbaa-476a-bbdc-3ca83c67e1d1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20260212_f853b2ff-dc28-431b-8d78-1294ce6434aa</t>
+          <t>20260212_181e805d-e660-4d0f-9c06-c6a5263a790a</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/data/documents.xlsx
+++ b/data/documents.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20260212_02c4f4a2-fbaa-476a-bbdc-3ca83c67e1d1</t>
+          <t>20260212_25d59e61-ad72-419f-9cb3-c9d06504a46d</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
